--- a/群发邮件/通讯录.xlsx
+++ b/群发邮件/通讯录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilush\PycharmProjects\pythonProject\群发邮件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CEB87E-D2AB-4860-B80C-F2BB8C2619CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA99624-35E0-4814-8811-7A859352BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="2380" windowWidth="16880" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>邮件地址</t>
   </si>
@@ -41,13 +41,10 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>刘永厚</t>
+    <t>reny@qidianbx.com</t>
   </si>
   <si>
-    <t>李丽翾</t>
-  </si>
-  <si>
-    <t>reny@qidianbx.com</t>
+    <t>刘永厚;李丽翾</t>
   </si>
 </sst>
 </file>
@@ -412,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -434,24 +431,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/群发邮件/通讯录.xlsx
+++ b/群发邮件/通讯录.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28120"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilush\PycharmProjects\pythonProject\群发邮件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA99624-35E0-4814-8811-7A859352BD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF3D507-0518-47F9-ACD8-F7A3CF9DB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="2380" windowWidth="16880" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="1000" windowWidth="16880" windowHeight="11300" xr2:uid="{34D42B88-CAC1-4F77-B14E-03B01696AA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -24,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,18 +34,1695 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>邮件地址</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>reny@qidianbx.com</t>
-  </si>
-  <si>
-    <t>刘永厚;李丽翾</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="563">
+  <si>
+    <t>投保员工Mail</t>
+  </si>
+  <si>
+    <t>2383128157@qq.com</t>
+  </si>
+  <si>
+    <t>tingting.feng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>nhysun@126.com</t>
+  </si>
+  <si>
+    <t>mxf2003qj@yanfeng.com</t>
+  </si>
+  <si>
+    <t>jing.zhang18@yanfeng.com</t>
+  </si>
+  <si>
+    <t>15026552091@163.com</t>
+  </si>
+  <si>
+    <t>jintao_kingahbb@126.com</t>
+  </si>
+  <si>
+    <t>1181645835@qq.com</t>
+  </si>
+  <si>
+    <t>jingjing.zong@yanfeng.com</t>
+  </si>
+  <si>
+    <t>ningning.yang01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>shichengxiang1983@163.com</t>
+  </si>
+  <si>
+    <t>quye1988@hotmail.com</t>
+  </si>
+  <si>
+    <t>82633138@qq.com</t>
+  </si>
+  <si>
+    <t>wei.li45@yanfeng.com</t>
+  </si>
+  <si>
+    <t>pengbo9308@163.com</t>
+  </si>
+  <si>
+    <t>zqhmqb@163.com</t>
+  </si>
+  <si>
+    <t>kerui.wu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>shuai.meng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>wei.jia@yanfeng.com</t>
+  </si>
+  <si>
+    <t>mingyang.yan@yanfeng.com</t>
+  </si>
+  <si>
+    <t>zaiwei.tao@yanfeng.com</t>
+  </si>
+  <si>
+    <t>32951183@qq.com</t>
+  </si>
+  <si>
+    <t>wenjun.xu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>iamzyy927@163.com</t>
+  </si>
+  <si>
+    <t>qi.zhu01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>xiaoming.yu-ext@yanfeng.com</t>
+  </si>
+  <si>
+    <t>Li.yan02-ext@yanfeng.com</t>
+  </si>
+  <si>
+    <t>706653530@qq.com</t>
+  </si>
+  <si>
+    <t>909370552@qq.com</t>
+  </si>
+  <si>
+    <t>haidong. zhu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>chenwei.liu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>yaowei.cao@yanfeng.com</t>
+  </si>
+  <si>
+    <t>315542366@qq.com</t>
+  </si>
+  <si>
+    <t>69731697@qq.com</t>
+  </si>
+  <si>
+    <t>xuefei.liu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>junhui.liu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>zhicai.liu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>ting.zheng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>guiliang.teng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>yandongx@163.com</t>
+  </si>
+  <si>
+    <t>hongyan.mao@yanfeng.com</t>
+  </si>
+  <si>
+    <t>425443138@qq.com</t>
+  </si>
+  <si>
+    <t>wenwen.jiang@yanfeng.com</t>
+  </si>
+  <si>
+    <t>403274542@qq.com</t>
+  </si>
+  <si>
+    <t>1484971824@qq.com</t>
+  </si>
+  <si>
+    <t>chunyan.zhu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>erwen.zhang@yanfeng.com</t>
+  </si>
+  <si>
+    <t>hjpkwm0221@163.com</t>
+  </si>
+  <si>
+    <t>ping.xu01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>120541145@qq.com</t>
+  </si>
+  <si>
+    <t>1195497690</t>
+  </si>
+  <si>
+    <t>314433584@qq.com</t>
+  </si>
+  <si>
+    <t>jiahe.cao@yanfeng.com</t>
+  </si>
+  <si>
+    <t>xiangjie.zhou@yanfeng.com</t>
+  </si>
+  <si>
+    <t>gongcheng.pebg@yanfeng.com</t>
+  </si>
+  <si>
+    <t>jifeng.shi@yanfeng.com</t>
+  </si>
+  <si>
+    <t>qi.zhu05@yanfeng.com</t>
+  </si>
+  <si>
+    <t>baozhong.fan@yanfen.com</t>
+  </si>
+  <si>
+    <t>senwei.gu01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>qianh.ren@yanfeng.com</t>
+  </si>
+  <si>
+    <t>13917453814@139.com</t>
+  </si>
+  <si>
+    <t>Yinhang.dong@yanfeng.com</t>
+  </si>
+  <si>
+    <t>cavalier0317@163.com</t>
+  </si>
+  <si>
+    <t>342540041@qq.com</t>
+  </si>
+  <si>
+    <t>565935391@qq.com</t>
+  </si>
+  <si>
+    <t>1005679307@qq.com</t>
+  </si>
+  <si>
+    <t>chunfei.lu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>4167496@qq.com</t>
+  </si>
+  <si>
+    <t>yun.shen@yanfeng.com</t>
+  </si>
+  <si>
+    <t>liyanning2011@163.com</t>
+  </si>
+  <si>
+    <t>zhewei.sun@yanfeng.com</t>
+  </si>
+  <si>
+    <t>13661817856@139.com</t>
+  </si>
+  <si>
+    <t>minj87@163.com</t>
+  </si>
+  <si>
+    <t>fei.xiang@yanfeng.com</t>
+  </si>
+  <si>
+    <t>387896343@qq.com</t>
+  </si>
+  <si>
+    <t>xue.xiuhua@yanfeng.co m</t>
+  </si>
+  <si>
+    <t>qing.zhou01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>hui.li34@yanfeng.com</t>
+  </si>
+  <si>
+    <t>247773891@qq.com</t>
+  </si>
+  <si>
+    <t>yun.zhao@yanfeng.com</t>
+  </si>
+  <si>
+    <t>1226333174@qq.com</t>
+  </si>
+  <si>
+    <t>lanlan.deng @yanfeng.com</t>
+  </si>
+  <si>
+    <t>junfeng.li@yanfeng.com</t>
+  </si>
+  <si>
+    <t>qiang.jin@yanfeng.com</t>
+  </si>
+  <si>
+    <t>mengjun.tian@yanfeng.com</t>
+  </si>
+  <si>
+    <t>wenkai.chen@yanfeng.com</t>
+  </si>
+  <si>
+    <t>qdkq666@126.com</t>
+  </si>
+  <si>
+    <t>junt_chen@163.com</t>
+  </si>
+  <si>
+    <t>zhijun.yang01@yanfeng.com</t>
+  </si>
+  <si>
+    <t>chao.zhang15@yanfeng.com</t>
+  </si>
+  <si>
+    <t>155167016@qq.com</t>
+  </si>
+  <si>
+    <t>shen.wenli@yanfeng.com</t>
+  </si>
+  <si>
+    <t>xinan.hu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>chongwu_zhang@163.com</t>
+  </si>
+  <si>
+    <t>princejiangyl@163.com</t>
+  </si>
+  <si>
+    <t>307032647@qq.com</t>
+  </si>
+  <si>
+    <t>wei.xu10@yanfeng.com</t>
+  </si>
+  <si>
+    <t>zipeng.zheng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>1064327996@qq.com</t>
+  </si>
+  <si>
+    <t>guofu.sun@yanfeng.com</t>
+  </si>
+  <si>
+    <t>fuqing.fang@yanfeng.com</t>
+  </si>
+  <si>
+    <t>meng.lan@yanfeng.com</t>
+  </si>
+  <si>
+    <t>tao.li10@yanfeng.com</t>
+  </si>
+  <si>
+    <t>zhenyu.zhang02@yanfeng.com</t>
+  </si>
+  <si>
+    <t>wtuzyp@126.com</t>
+  </si>
+  <si>
+    <t>guanghao.zou@yanfeng.com</t>
+  </si>
+  <si>
+    <t>xiaohui.xu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>baijian.shen@yanfeng.com</t>
+  </si>
+  <si>
+    <t>yuxuan.zhu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>qingkai.meng@yanfeng.com</t>
+  </si>
+  <si>
+    <t>544914378@qq.com</t>
+  </si>
+  <si>
+    <t>zhoulj@aliyun.com</t>
+  </si>
+  <si>
+    <t>1074918707@qq.com</t>
+  </si>
+  <si>
+    <t>wxhxyj@163.com</t>
+  </si>
+  <si>
+    <t>mingding.he@yanfeng.com</t>
+  </si>
+  <si>
+    <t>tzjzzyj@163.com</t>
+  </si>
+  <si>
+    <t>Shunning.lu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>jwj _730@163.com</t>
+  </si>
+  <si>
+    <t>linchao.wei@yanfeng.com</t>
+  </si>
+  <si>
+    <t>15001830073@163.com</t>
+  </si>
+  <si>
+    <t>mingkuan.xu@yanfeng.com</t>
+  </si>
+  <si>
+    <t>sean87@126.com</t>
+  </si>
+  <si>
+    <t>18001939469@163.com</t>
+  </si>
+  <si>
+    <t>yu.wei@yanfeng.com</t>
+  </si>
+  <si>
+    <t>cheng.gui@yang.com</t>
+  </si>
+  <si>
+    <t>758555305@qq.com</t>
+  </si>
+  <si>
+    <t>29311857@qq.com</t>
+  </si>
+  <si>
+    <t>897595075@qq.com</t>
+  </si>
+  <si>
+    <t>yiyao.zhou@yanfeng.com</t>
+  </si>
+  <si>
+    <t>junxiu.gai@yanfeng.com</t>
+  </si>
+  <si>
+    <t>xiaofei.wang05@yanfeng.com</t>
+  </si>
+  <si>
+    <t>dongsheng.yang@yanfeng.com</t>
+  </si>
+  <si>
+    <t>chunxiang.xi@yanfeng.com</t>
+  </si>
+  <si>
+    <t>被保人</t>
+  </si>
+  <si>
+    <t>汤龙</t>
+  </si>
+  <si>
+    <t>冯婷婷</t>
+  </si>
+  <si>
+    <t>项予汐</t>
+  </si>
+  <si>
+    <t>倪海英</t>
+  </si>
+  <si>
+    <t>黄文亮</t>
+  </si>
+  <si>
+    <t>毛新福</t>
+  </si>
+  <si>
+    <t>王真</t>
+  </si>
+  <si>
+    <t>张菁</t>
+  </si>
+  <si>
+    <t>杜莉</t>
+  </si>
+  <si>
+    <t>胡皓煜</t>
+  </si>
+  <si>
+    <t>金涛</t>
+  </si>
+  <si>
+    <t>金稚心</t>
+  </si>
+  <si>
+    <t>孙杰</t>
+  </si>
+  <si>
+    <t>孙宥一</t>
+  </si>
+  <si>
+    <t>宗晶晶</t>
+  </si>
+  <si>
+    <t>张屹安</t>
+  </si>
+  <si>
+    <t>杨宁宁</t>
+  </si>
+  <si>
+    <t>张振华</t>
+  </si>
+  <si>
+    <t>史承祥</t>
+  </si>
+  <si>
+    <t>史若琳</t>
+  </si>
+  <si>
+    <t>瞿烨</t>
+  </si>
+  <si>
+    <t>龚祉奇</t>
+  </si>
+  <si>
+    <t>徐靖</t>
+  </si>
+  <si>
+    <t>徐磊</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>吴晓玲</t>
+  </si>
+  <si>
+    <t>李奕澄</t>
+  </si>
+  <si>
+    <t>彭博</t>
+  </si>
+  <si>
+    <t>白冰</t>
+  </si>
+  <si>
+    <t>孟庆保</t>
+  </si>
+  <si>
+    <t>齐福平</t>
+  </si>
+  <si>
+    <t>孟雨轩</t>
+  </si>
+  <si>
+    <t>吴珂睿</t>
+  </si>
+  <si>
+    <t>吴琳晞</t>
+  </si>
+  <si>
+    <t>孟帅</t>
+  </si>
+  <si>
+    <t>孟熙皓</t>
+  </si>
+  <si>
+    <t>贾伟</t>
+  </si>
+  <si>
+    <t>贾茜</t>
+  </si>
+  <si>
+    <t>闫明扬</t>
+  </si>
+  <si>
+    <t>王静</t>
+  </si>
+  <si>
+    <t>闫渝宸</t>
+  </si>
+  <si>
+    <t>陶再伟</t>
+  </si>
+  <si>
+    <t>鲁加甜</t>
+  </si>
+  <si>
+    <t>马芳</t>
+  </si>
+  <si>
+    <t>杨凤英</t>
+  </si>
+  <si>
+    <t>徐文俊</t>
+  </si>
+  <si>
+    <t>徐晏菲</t>
+  </si>
+  <si>
+    <t>张晏婴</t>
+  </si>
+  <si>
+    <t>张宇桐</t>
+  </si>
+  <si>
+    <t>朱琪</t>
+  </si>
+  <si>
+    <t>毛钰齐</t>
+  </si>
+  <si>
+    <t>于晓明</t>
+  </si>
+  <si>
+    <t>于明熙</t>
+  </si>
+  <si>
+    <t>严丽</t>
+  </si>
+  <si>
+    <t>余峻熙</t>
+  </si>
+  <si>
+    <t>俞伟冲</t>
+  </si>
+  <si>
+    <t>俞书睿</t>
+  </si>
+  <si>
+    <t>吴嘉雯</t>
+  </si>
+  <si>
+    <t>张磊</t>
+  </si>
+  <si>
+    <t>朱海东</t>
+  </si>
+  <si>
+    <t>朱玲玲</t>
+  </si>
+  <si>
+    <t>刘陈伟</t>
+  </si>
+  <si>
+    <t>李莉丽</t>
+  </si>
+  <si>
+    <t>曹耀伟</t>
+  </si>
+  <si>
+    <t>曹艺凡</t>
+  </si>
+  <si>
+    <t>雷腾近</t>
+  </si>
+  <si>
+    <t>雷晨熙</t>
+  </si>
+  <si>
+    <t>雷晨露</t>
+  </si>
+  <si>
+    <t>黄浩</t>
+  </si>
+  <si>
+    <t>黄玮晨</t>
+  </si>
+  <si>
+    <t>刘学飞</t>
+  </si>
+  <si>
+    <t>刘奕维</t>
+  </si>
+  <si>
+    <t>刘俊会</t>
+  </si>
+  <si>
+    <t>刘若琪</t>
+  </si>
+  <si>
+    <t>刘治财</t>
+  </si>
+  <si>
+    <t>陈百荣</t>
+  </si>
+  <si>
+    <t>郑婷</t>
+  </si>
+  <si>
+    <t>石杰</t>
+  </si>
+  <si>
+    <t>滕贵良</t>
+  </si>
+  <si>
+    <t>袁海瑾</t>
+  </si>
+  <si>
+    <t>严冬</t>
+  </si>
+  <si>
+    <t>马丹凤</t>
+  </si>
+  <si>
+    <t>严友中</t>
+  </si>
+  <si>
+    <t>代喜支</t>
+  </si>
+  <si>
+    <t>严承宇</t>
+  </si>
+  <si>
+    <t>毛红燕</t>
+  </si>
+  <si>
+    <t>孙宇妍</t>
+  </si>
+  <si>
+    <t>魏东</t>
+  </si>
+  <si>
+    <t>魏知宇</t>
+  </si>
+  <si>
+    <t>蒋雯雯</t>
+  </si>
+  <si>
+    <t>陈钰莹</t>
+  </si>
+  <si>
+    <t>张晓萍</t>
+  </si>
+  <si>
+    <t>徐子瑜</t>
+  </si>
+  <si>
+    <t>孙毅</t>
+  </si>
+  <si>
+    <t>孙书成</t>
+  </si>
+  <si>
+    <t>王玉美</t>
+  </si>
+  <si>
+    <t>孙嘉阳</t>
+  </si>
+  <si>
+    <t>朱春燕</t>
+  </si>
+  <si>
+    <t>张猛</t>
+  </si>
+  <si>
+    <t>朱千志</t>
+  </si>
+  <si>
+    <t>张嘉言</t>
+  </si>
+  <si>
+    <t>张二吻</t>
+  </si>
+  <si>
+    <t>徐娟</t>
+  </si>
+  <si>
+    <t>张润知</t>
+  </si>
+  <si>
+    <t>李海军</t>
+  </si>
+  <si>
+    <t>宋丽</t>
+  </si>
+  <si>
+    <t>徐萍</t>
+  </si>
+  <si>
+    <t>苑灝哲</t>
+  </si>
+  <si>
+    <t>杨玉婷</t>
+  </si>
+  <si>
+    <t>刘梓诺</t>
+  </si>
+  <si>
+    <t>赵学峰</t>
+  </si>
+  <si>
+    <t>孟慧</t>
+  </si>
+  <si>
+    <t>赵章伦</t>
+  </si>
+  <si>
+    <t>殷成琼</t>
+  </si>
+  <si>
+    <t>赵思齐</t>
+  </si>
+  <si>
+    <t>石文鑫</t>
+  </si>
+  <si>
+    <t>赵媛媛</t>
+  </si>
+  <si>
+    <t>吕丽琼</t>
+  </si>
+  <si>
+    <t>石熠</t>
+  </si>
+  <si>
+    <t>曹家赫</t>
+  </si>
+  <si>
+    <t>曹连合</t>
+  </si>
+  <si>
+    <t>郭爱芹</t>
+  </si>
+  <si>
+    <t>周香姐</t>
+  </si>
+  <si>
+    <t>周陶元</t>
+  </si>
+  <si>
+    <t>钱爱云</t>
+  </si>
+  <si>
+    <t>彭功成</t>
+  </si>
+  <si>
+    <t>彭慕薇</t>
+  </si>
+  <si>
+    <t>彭紫晴</t>
+  </si>
+  <si>
+    <t>石季峰</t>
+  </si>
+  <si>
+    <t>石楷熠</t>
+  </si>
+  <si>
+    <t>朱祺</t>
+  </si>
+  <si>
+    <t>范宝中</t>
+  </si>
+  <si>
+    <t>范永远</t>
+  </si>
+  <si>
+    <t>付深玲</t>
+  </si>
+  <si>
+    <t>顾森伟</t>
+  </si>
+  <si>
+    <t>顾金津</t>
+  </si>
+  <si>
+    <t>金天添</t>
+  </si>
+  <si>
+    <t>任强</t>
+  </si>
+  <si>
+    <t>蘧娜</t>
+  </si>
+  <si>
+    <t>任奕澄</t>
+  </si>
+  <si>
+    <t>王斌</t>
+  </si>
+  <si>
+    <t>陆梓宸</t>
+  </si>
+  <si>
+    <t>董银行</t>
+  </si>
+  <si>
+    <t>董施菡</t>
+  </si>
+  <si>
+    <t>黄丽仁</t>
+  </si>
+  <si>
+    <t>邹莎</t>
+  </si>
+  <si>
+    <t>闵成</t>
+  </si>
+  <si>
+    <t>闵可然</t>
+  </si>
+  <si>
+    <t>林金杭</t>
+  </si>
+  <si>
+    <t>林子墨</t>
+  </si>
+  <si>
+    <t>张兰</t>
+  </si>
+  <si>
+    <t>陈张悦</t>
+  </si>
+  <si>
+    <t>鲁春飞</t>
+  </si>
+  <si>
+    <t>张泽晨</t>
+  </si>
+  <si>
+    <t>王岚岚</t>
+  </si>
+  <si>
+    <t>吴其航</t>
+  </si>
+  <si>
+    <t>沈赟</t>
+  </si>
+  <si>
+    <t>沈书妍</t>
+  </si>
+  <si>
+    <t>李彦宁</t>
+  </si>
+  <si>
+    <t>阎勤勤</t>
+  </si>
+  <si>
+    <t>孙浙威</t>
+  </si>
+  <si>
+    <t>孙瑜泽</t>
+  </si>
+  <si>
+    <t>徐婷婷</t>
+  </si>
+  <si>
+    <t>胡越</t>
+  </si>
+  <si>
+    <t>郁敏健</t>
+  </si>
+  <si>
+    <t>向飞</t>
+  </si>
+  <si>
+    <t>向美仑</t>
+  </si>
+  <si>
+    <t>唐佳明</t>
+  </si>
+  <si>
+    <t>唐果</t>
+  </si>
+  <si>
+    <t>薛秀华</t>
+  </si>
+  <si>
+    <t>顾建军</t>
+  </si>
+  <si>
+    <t>周庆</t>
+  </si>
+  <si>
+    <t>汤淑梅</t>
+  </si>
+  <si>
+    <t>周寒光</t>
+  </si>
+  <si>
+    <t>李辉</t>
+  </si>
+  <si>
+    <t>徐莹</t>
+  </si>
+  <si>
+    <t>徐振兴</t>
+  </si>
+  <si>
+    <t>向庆玲</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>赵佑泽</t>
+  </si>
+  <si>
+    <t>陈明</t>
+  </si>
+  <si>
+    <t>陈嘉翊</t>
+  </si>
+  <si>
+    <t>邓兰兰</t>
+  </si>
+  <si>
+    <t>洪建平</t>
+  </si>
+  <si>
+    <t>邓兰生</t>
+  </si>
+  <si>
+    <t>邹招金</t>
+  </si>
+  <si>
+    <t>李俊丰</t>
+  </si>
+  <si>
+    <t>李语心</t>
+  </si>
+  <si>
+    <t>金强</t>
+  </si>
+  <si>
+    <t>徐旭</t>
+  </si>
+  <si>
+    <t>田盟军</t>
+  </si>
+  <si>
+    <t>田宁生</t>
+  </si>
+  <si>
+    <t>邵秀珍</t>
+  </si>
+  <si>
+    <t>陈文凯</t>
+  </si>
+  <si>
+    <t>陈锦佑</t>
+  </si>
+  <si>
+    <t>孔德强</t>
+  </si>
+  <si>
+    <t>孔维宇</t>
+  </si>
+  <si>
+    <t>陈俊廷</t>
+  </si>
+  <si>
+    <t>陈璟同</t>
+  </si>
+  <si>
+    <t>杨智俊</t>
+  </si>
+  <si>
+    <t>张春晓</t>
+  </si>
+  <si>
+    <t>杨明卓</t>
+  </si>
+  <si>
+    <t>杨蕴章</t>
+  </si>
+  <si>
+    <t>张超</t>
+  </si>
+  <si>
+    <t>张煚晗</t>
+  </si>
+  <si>
+    <t>李翠平</t>
+  </si>
+  <si>
+    <t>胡贤赵</t>
+  </si>
+  <si>
+    <t>徐恩梅</t>
+  </si>
+  <si>
+    <t>陈庆克</t>
+  </si>
+  <si>
+    <t>赵德林</t>
+  </si>
+  <si>
+    <t>谌文利</t>
+  </si>
+  <si>
+    <t>姜波</t>
+  </si>
+  <si>
+    <t>胡新安</t>
+  </si>
+  <si>
+    <t>吴纹绣</t>
+  </si>
+  <si>
+    <t>胡婉瑜</t>
+  </si>
+  <si>
+    <t>张崇武</t>
+  </si>
+  <si>
+    <t>刘杰</t>
+  </si>
+  <si>
+    <t>姜玉龙</t>
+  </si>
+  <si>
+    <t>姜卓言</t>
+  </si>
+  <si>
+    <t>孙春香</t>
+  </si>
+  <si>
+    <t>胡梓旭</t>
+  </si>
+  <si>
+    <t>许伟</t>
+  </si>
+  <si>
+    <t>李幸</t>
+  </si>
+  <si>
+    <t>许锦灏</t>
+  </si>
+  <si>
+    <t>郑自鹏</t>
+  </si>
+  <si>
+    <t>张晓东</t>
+  </si>
+  <si>
+    <t>姜劭竣</t>
+  </si>
+  <si>
+    <t>张力岩</t>
+  </si>
+  <si>
+    <t>孙国富</t>
+  </si>
+  <si>
+    <t>林小利</t>
+  </si>
+  <si>
+    <t>方福庆</t>
+  </si>
+  <si>
+    <t>方一辰</t>
+  </si>
+  <si>
+    <t>兰猛</t>
+  </si>
+  <si>
+    <t>兰付明</t>
+  </si>
+  <si>
+    <t>官义英</t>
+  </si>
+  <si>
+    <t>李涛</t>
+  </si>
+  <si>
+    <t>张丽华</t>
+  </si>
+  <si>
+    <t>张震宇</t>
+  </si>
+  <si>
+    <t>张灵萱</t>
+  </si>
+  <si>
+    <t>曾运鹏</t>
+  </si>
+  <si>
+    <t>曾家怡</t>
+  </si>
+  <si>
+    <t>邹光浩</t>
+  </si>
+  <si>
+    <t>赵廷雨</t>
+  </si>
+  <si>
+    <t>徐晓晖</t>
+  </si>
+  <si>
+    <t>刘海清</t>
+  </si>
+  <si>
+    <t>沈百健</t>
+  </si>
+  <si>
+    <t>沈芊屿</t>
+  </si>
+  <si>
+    <t>朱玉宣</t>
+  </si>
+  <si>
+    <t>韩铸</t>
+  </si>
+  <si>
+    <t>王彦芹</t>
+  </si>
+  <si>
+    <t>朱现江</t>
+  </si>
+  <si>
+    <t>韩沐柠</t>
+  </si>
+  <si>
+    <t>孟庆凯</t>
+  </si>
+  <si>
+    <t>孙悦</t>
+  </si>
+  <si>
+    <t>魏忠英</t>
+  </si>
+  <si>
+    <t>孟宪国</t>
+  </si>
+  <si>
+    <t>孟悦伊</t>
+  </si>
+  <si>
+    <t>孟繁一</t>
+  </si>
+  <si>
+    <t>杨智</t>
+  </si>
+  <si>
+    <t>杨康佑</t>
+  </si>
+  <si>
+    <t>周李静</t>
+  </si>
+  <si>
+    <t>张庆庆</t>
+  </si>
+  <si>
+    <t>张霖逍</t>
+  </si>
+  <si>
+    <t>许陈杰</t>
+  </si>
+  <si>
+    <t>吴梦玲</t>
+  </si>
+  <si>
+    <t>钱兰</t>
+  </si>
+  <si>
+    <t>许梓涵</t>
+  </si>
+  <si>
+    <t>许洛翊</t>
+  </si>
+  <si>
+    <t>王新浩</t>
+  </si>
+  <si>
+    <t>徐艳姣</t>
+  </si>
+  <si>
+    <t>何明锭</t>
+  </si>
+  <si>
+    <t>何禾</t>
+  </si>
+  <si>
+    <t>祝勇健</t>
+  </si>
+  <si>
+    <t>蓝莹</t>
+  </si>
+  <si>
+    <t>祝康富</t>
+  </si>
+  <si>
+    <t>李海梅</t>
+  </si>
+  <si>
+    <t>陆顺利</t>
+  </si>
+  <si>
+    <t>施怡</t>
+  </si>
+  <si>
+    <t>姜文娟</t>
+  </si>
+  <si>
+    <t>徐海明</t>
+  </si>
+  <si>
+    <t>姜习华</t>
+  </si>
+  <si>
+    <t>占祥兰</t>
+  </si>
+  <si>
+    <t>卫林超</t>
+  </si>
+  <si>
+    <t>原晨欣</t>
+  </si>
+  <si>
+    <t>卫庆斌</t>
+  </si>
+  <si>
+    <t>宋莲花</t>
+  </si>
+  <si>
+    <t>祝旋</t>
+  </si>
+  <si>
+    <t>祝木军</t>
+  </si>
+  <si>
+    <t>王水秀</t>
+  </si>
+  <si>
+    <t>许名宽</t>
+  </si>
+  <si>
+    <t>许奕阳</t>
+  </si>
+  <si>
+    <t>张毅</t>
+  </si>
+  <si>
+    <t>张昕桐</t>
+  </si>
+  <si>
+    <t>张增赞</t>
+  </si>
+  <si>
+    <t>张颂正</t>
+  </si>
+  <si>
+    <t>魏宇</t>
+  </si>
+  <si>
+    <t>魏道福</t>
+  </si>
+  <si>
+    <t>张容珊</t>
+  </si>
+  <si>
+    <t>桂澄</t>
+  </si>
+  <si>
+    <t>陈友弟</t>
+  </si>
+  <si>
+    <t>桂国良</t>
+  </si>
+  <si>
+    <t>徐亮</t>
+  </si>
+  <si>
+    <t>张倩倩</t>
+  </si>
+  <si>
+    <t>徐奕珩</t>
+  </si>
+  <si>
+    <t>于鑫辉</t>
+  </si>
+  <si>
+    <t>于桉迪</t>
+  </si>
+  <si>
+    <t>朱欢</t>
+  </si>
+  <si>
+    <t>胡凯</t>
+  </si>
+  <si>
+    <t>胡睿祎</t>
+  </si>
+  <si>
+    <t>周益尧</t>
+  </si>
+  <si>
+    <t>周汉火</t>
+  </si>
+  <si>
+    <t>罗金珠</t>
+  </si>
+  <si>
+    <t>盖俊秀</t>
+  </si>
+  <si>
+    <t>刘广庆</t>
+  </si>
+  <si>
+    <t>刘昶萱</t>
+  </si>
+  <si>
+    <t>王晓飞</t>
+  </si>
+  <si>
+    <t>王树好</t>
+  </si>
+  <si>
+    <t>杨东升</t>
+  </si>
+  <si>
+    <t>杨奚欢</t>
+  </si>
+  <si>
+    <t>杨奚乐</t>
+  </si>
+  <si>
+    <t>奚纯香</t>
+  </si>
+  <si>
+    <t>yuanqi.liu@keiper.com</t>
+  </si>
+  <si>
+    <t>jwxwh101031@163.com</t>
+  </si>
+  <si>
+    <t>15821009601@126.com</t>
+  </si>
+  <si>
+    <t>jun.ye01@keiper.com</t>
+  </si>
+  <si>
+    <t>465452538@qq.com</t>
+  </si>
+  <si>
+    <t>sheng730324@163.com</t>
+  </si>
+  <si>
+    <t>biyi.huang@keiper.com</t>
+  </si>
+  <si>
+    <t>pinghua.shen@keiper.com</t>
+  </si>
+  <si>
+    <t>leiguo.pan@keiper.com</t>
+  </si>
+  <si>
+    <t>xiaorong.zhang@keiper.com</t>
+  </si>
+  <si>
+    <t>wei.lv@keiper.com</t>
+  </si>
+  <si>
+    <t>jinfei.shi@keiper.com</t>
+  </si>
+  <si>
+    <t>myheart-sea@126.com</t>
+  </si>
+  <si>
+    <t>jiaying.zhang@keiper.com</t>
+  </si>
+  <si>
+    <t>qichao.li@keiper.com</t>
+  </si>
+  <si>
+    <t>huan.wang@keiper.com</t>
+  </si>
+  <si>
+    <t>song.miao@keiper.com</t>
+  </si>
+  <si>
+    <t>haila.hu@keiper.com</t>
+  </si>
+  <si>
+    <t>huquan_sh@163.com</t>
+  </si>
+  <si>
+    <t>cjh0002@163.com</t>
+  </si>
+  <si>
+    <t>13917235232@163.com</t>
+  </si>
+  <si>
+    <t>zhangjie.gao@keiper.com</t>
+  </si>
+  <si>
+    <t>xingxing.jiao@keiper.com</t>
+  </si>
+  <si>
+    <t>www.1048432221@qq.com</t>
+  </si>
+  <si>
+    <t>chun.chen@keiper.com</t>
+  </si>
+  <si>
+    <t>shunwen.dong@keiper.com</t>
+  </si>
+  <si>
+    <t>13621900042@139.com</t>
+  </si>
+  <si>
+    <t>xueping.yin@keiper.com</t>
+  </si>
+  <si>
+    <t>745756277@qq.com</t>
+  </si>
+  <si>
+    <t>382026078@qq.com</t>
+  </si>
+  <si>
+    <t>刘元琦</t>
+  </si>
+  <si>
+    <t>李亦姝</t>
+  </si>
+  <si>
+    <t>姜威</t>
+  </si>
+  <si>
+    <t>胡佩珠</t>
+  </si>
+  <si>
+    <t>孙晓辉</t>
+  </si>
+  <si>
+    <t>孙以诺</t>
+  </si>
+  <si>
+    <t>叶俊</t>
+  </si>
+  <si>
+    <t>叶奕辰</t>
+  </si>
+  <si>
+    <t>杨阳</t>
+  </si>
+  <si>
+    <t>杨絮桉</t>
+  </si>
+  <si>
+    <t>盛宗彦</t>
+  </si>
+  <si>
+    <t>陈治华</t>
+  </si>
+  <si>
+    <t>黄碧怡</t>
+  </si>
+  <si>
+    <t>王浩丞</t>
+  </si>
+  <si>
+    <t>沈平华</t>
+  </si>
+  <si>
+    <t>徐燕芬</t>
+  </si>
+  <si>
+    <t>沈宝林</t>
+  </si>
+  <si>
+    <t>孙小妹</t>
+  </si>
+  <si>
+    <t>沈懿宸</t>
+  </si>
+  <si>
+    <t>潘垒国</t>
+  </si>
+  <si>
+    <t>潘紫萱</t>
+  </si>
+  <si>
+    <t>章晓荣</t>
+  </si>
+  <si>
+    <t>章林伟</t>
+  </si>
+  <si>
+    <t>吕伟</t>
+  </si>
+  <si>
+    <t>吕子熙</t>
+  </si>
+  <si>
+    <t>施劲飞</t>
+  </si>
+  <si>
+    <t>施节沅</t>
+  </si>
+  <si>
+    <t>张晓玲</t>
+  </si>
+  <si>
+    <t>张仲学</t>
+  </si>
+  <si>
+    <t>文引静</t>
+  </si>
+  <si>
+    <t>张嘉莹</t>
+  </si>
+  <si>
+    <t>赵燕萍</t>
+  </si>
+  <si>
+    <t>张耀铭</t>
+  </si>
+  <si>
+    <t>赵奕安</t>
+  </si>
+  <si>
+    <t>赵奕晨</t>
+  </si>
+  <si>
+    <t>李启超</t>
+  </si>
+  <si>
+    <t>李梓锐</t>
+  </si>
+  <si>
+    <t>王欢</t>
+  </si>
+  <si>
+    <t>王姝洁</t>
+  </si>
+  <si>
+    <t>苗松</t>
+  </si>
+  <si>
+    <t>苗子轩</t>
+  </si>
+  <si>
+    <t>胡海拉</t>
+  </si>
+  <si>
+    <t>胡昕奕</t>
+  </si>
+  <si>
+    <t>胡权</t>
+  </si>
+  <si>
+    <t>傅琦琳</t>
+  </si>
+  <si>
+    <t>陈健华</t>
+  </si>
+  <si>
+    <t>文丽</t>
+  </si>
+  <si>
+    <t>刘斌</t>
+  </si>
+  <si>
+    <t>林钰</t>
+  </si>
+  <si>
+    <t>高漳杰</t>
+  </si>
+  <si>
+    <t>姚君</t>
+  </si>
+  <si>
+    <t>焦星星</t>
+  </si>
+  <si>
+    <t>王爱莲</t>
+  </si>
+  <si>
+    <t>焦守立</t>
+  </si>
+  <si>
+    <t>焦翌华</t>
+  </si>
+  <si>
+    <t>张宇锋</t>
+  </si>
+  <si>
+    <t>李京星</t>
+  </si>
+  <si>
+    <t>陈春</t>
+  </si>
+  <si>
+    <t>陈璟严</t>
+  </si>
+  <si>
+    <t>董顺文</t>
+  </si>
+  <si>
+    <t>董宇豪</t>
+  </si>
+  <si>
+    <t>程勇</t>
+  </si>
+  <si>
+    <t>李红梅</t>
+  </si>
+  <si>
+    <t>程宝云</t>
+  </si>
+  <si>
+    <t>李筛娣</t>
+  </si>
+  <si>
+    <t>程彦淼</t>
+  </si>
+  <si>
+    <t>殷雪萍</t>
+  </si>
+  <si>
+    <t>陈凤兰</t>
+  </si>
+  <si>
+    <t>殷建国</t>
+  </si>
+  <si>
+    <t>戴梓妍</t>
+  </si>
+  <si>
+    <t>陈治宇</t>
+  </si>
+  <si>
+    <t>陈天奕</t>
+  </si>
+  <si>
+    <t>俞艳</t>
+  </si>
+  <si>
+    <t>潘京照</t>
+  </si>
+  <si>
+    <t>徐永珍</t>
+  </si>
+  <si>
+    <t>ilushj@hotmail.com</t>
+  </si>
+  <si>
+    <t>施华杰dd</t>
   </si>
 </sst>
 </file>
@@ -56,14 +1734,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +1750,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,12 +1780,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -116,9 +1792,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7BD42FDD-7F9D-4ADE-9863-C832A2F16EAB}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{36DF9227-B0F8-4724-B225-FAE75CF683CD}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -132,9 +1819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,39 +1829,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -207,9 +1894,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -242,9 +1946,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -303,6 +2024,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -311,13 +2039,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,66 +2103,3222 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9793EA-2F83-4E3E-88F8-8F51B3C414E8}">
+  <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.75" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B112" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>62</v>
+      </c>
+      <c r="B145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>66</v>
+      </c>
+      <c r="B152" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B166" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>76</v>
+      </c>
+      <c r="B171" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>78</v>
+      </c>
+      <c r="B176" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>79</v>
+      </c>
+      <c r="B179" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>81</v>
+      </c>
+      <c r="B182" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>81</v>
+      </c>
+      <c r="B183" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>82</v>
+      </c>
+      <c r="B187" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>83</v>
+      </c>
+      <c r="B188" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>83</v>
+      </c>
+      <c r="B189" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>84</v>
+      </c>
+      <c r="B190" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>84</v>
+      </c>
+      <c r="B191" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>85</v>
+      </c>
+      <c r="B192" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>85</v>
+      </c>
+      <c r="B193" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>85</v>
+      </c>
+      <c r="B194" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>86</v>
+      </c>
+      <c r="B195" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>86</v>
+      </c>
+      <c r="B196" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>87</v>
+      </c>
+      <c r="B197" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>87</v>
+      </c>
+      <c r="B198" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>88</v>
+      </c>
+      <c r="B199" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>88</v>
+      </c>
+      <c r="B200" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>89</v>
+      </c>
+      <c r="B202" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>89</v>
+      </c>
+      <c r="B203" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>89</v>
+      </c>
+      <c r="B204" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>90</v>
+      </c>
+      <c r="B205" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>90</v>
+      </c>
+      <c r="B206" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>90</v>
+      </c>
+      <c r="B207" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>91</v>
+      </c>
+      <c r="B208" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>91</v>
+      </c>
+      <c r="B209" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>91</v>
+      </c>
+      <c r="B210" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>91</v>
+      </c>
+      <c r="B211" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>92</v>
+      </c>
+      <c r="B212" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>92</v>
+      </c>
+      <c r="B213" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>93</v>
+      </c>
+      <c r="B215" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>93</v>
+      </c>
+      <c r="B216" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>94</v>
+      </c>
+      <c r="B217" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>94</v>
+      </c>
+      <c r="B218" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>95</v>
+      </c>
+      <c r="B219" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>95</v>
+      </c>
+      <c r="B220" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>96</v>
+      </c>
+      <c r="B221" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>96</v>
+      </c>
+      <c r="B222" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>97</v>
+      </c>
+      <c r="B223" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>97</v>
+      </c>
+      <c r="B224" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>97</v>
+      </c>
+      <c r="B225" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>98</v>
+      </c>
+      <c r="B226" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>99</v>
+      </c>
+      <c r="B227" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>99</v>
+      </c>
+      <c r="B228" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>99</v>
+      </c>
+      <c r="B229" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>100</v>
+      </c>
+      <c r="B230" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>100</v>
+      </c>
+      <c r="B231" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>101</v>
+      </c>
+      <c r="B232" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>101</v>
+      </c>
+      <c r="B233" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>102</v>
+      </c>
+      <c r="B234" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>102</v>
+      </c>
+      <c r="B235" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>103</v>
+      </c>
+      <c r="B237" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>103</v>
+      </c>
+      <c r="B238" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>104</v>
+      </c>
+      <c r="B239" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>104</v>
+      </c>
+      <c r="B240" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>105</v>
+      </c>
+      <c r="B241" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>105</v>
+      </c>
+      <c r="B242" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>106</v>
+      </c>
+      <c r="B243" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>106</v>
+      </c>
+      <c r="B244" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>107</v>
+      </c>
+      <c r="B245" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>107</v>
+      </c>
+      <c r="B246" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>108</v>
+      </c>
+      <c r="B247" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>108</v>
+      </c>
+      <c r="B248" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>109</v>
+      </c>
+      <c r="B249" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>109</v>
+      </c>
+      <c r="B250" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>109</v>
+      </c>
+      <c r="B251" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>109</v>
+      </c>
+      <c r="B253" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>110</v>
+      </c>
+      <c r="B254" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>110</v>
+      </c>
+      <c r="B255" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>110</v>
+      </c>
+      <c r="B256" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>110</v>
+      </c>
+      <c r="B257" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>110</v>
+      </c>
+      <c r="B258" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>110</v>
+      </c>
+      <c r="B259" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>111</v>
+      </c>
+      <c r="B260" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>111</v>
+      </c>
+      <c r="B261" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>112</v>
+      </c>
+      <c r="B262" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>112</v>
+      </c>
+      <c r="B263" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>112</v>
+      </c>
+      <c r="B264" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>113</v>
+      </c>
+      <c r="B265" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>113</v>
+      </c>
+      <c r="B266" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>113</v>
+      </c>
+      <c r="B267" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>113</v>
+      </c>
+      <c r="B268" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>113</v>
+      </c>
+      <c r="B269" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>114</v>
+      </c>
+      <c r="B270" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>114</v>
+      </c>
+      <c r="B271" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>115</v>
+      </c>
+      <c r="B272" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>115</v>
+      </c>
+      <c r="B273" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>116</v>
+      </c>
+      <c r="B274" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>116</v>
+      </c>
+      <c r="B275" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>116</v>
+      </c>
+      <c r="B276" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>116</v>
+      </c>
+      <c r="B277" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>117</v>
+      </c>
+      <c r="B278" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>117</v>
+      </c>
+      <c r="B279" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>118</v>
+      </c>
+      <c r="B280" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>118</v>
+      </c>
+      <c r="B281" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>118</v>
+      </c>
+      <c r="B282" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>118</v>
+      </c>
+      <c r="B283" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>119</v>
+      </c>
+      <c r="B284" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>119</v>
+      </c>
+      <c r="B285" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>119</v>
+      </c>
+      <c r="B286" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>119</v>
+      </c>
+      <c r="B287" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>120</v>
+      </c>
+      <c r="B288" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>120</v>
+      </c>
+      <c r="B289" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>120</v>
+      </c>
+      <c r="B290" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>121</v>
+      </c>
+      <c r="B291" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>121</v>
+      </c>
+      <c r="B292" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>122</v>
+      </c>
+      <c r="B293" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>122</v>
+      </c>
+      <c r="B294" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>123</v>
+      </c>
+      <c r="B295" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>123</v>
+      </c>
+      <c r="B296" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>124</v>
+      </c>
+      <c r="B297" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>124</v>
+      </c>
+      <c r="B298" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>124</v>
+      </c>
+      <c r="B299" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>125</v>
+      </c>
+      <c r="B300" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>125</v>
+      </c>
+      <c r="B301" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>125</v>
+      </c>
+      <c r="B302" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>126</v>
+      </c>
+      <c r="B303" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>126</v>
+      </c>
+      <c r="B304" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>126</v>
+      </c>
+      <c r="B305" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>127</v>
+      </c>
+      <c r="B306" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>127</v>
+      </c>
+      <c r="B307" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>128</v>
+      </c>
+      <c r="B308" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>128</v>
+      </c>
+      <c r="B309" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>128</v>
+      </c>
+      <c r="B310" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>129</v>
+      </c>
+      <c r="B311" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>129</v>
+      </c>
+      <c r="B312" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>129</v>
+      </c>
+      <c r="B313" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>130</v>
+      </c>
+      <c r="B314" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>130</v>
+      </c>
+      <c r="B315" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>130</v>
+      </c>
+      <c r="B316" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>131</v>
+      </c>
+      <c r="B317" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>131</v>
+      </c>
+      <c r="B318" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>132</v>
+      </c>
+      <c r="B319" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>132</v>
+      </c>
+      <c r="B320" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>132</v>
+      </c>
+      <c r="B321" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>133</v>
+      </c>
+      <c r="B322" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>456</v>
+      </c>
+      <c r="B323" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>456</v>
+      </c>
+      <c r="B324" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>457</v>
+      </c>
+      <c r="B325" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>457</v>
+      </c>
+      <c r="B326" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>458</v>
+      </c>
+      <c r="B327" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>458</v>
+      </c>
+      <c r="B328" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>459</v>
+      </c>
+      <c r="B329" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>459</v>
+      </c>
+      <c r="B330" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>460</v>
+      </c>
+      <c r="B331" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>460</v>
+      </c>
+      <c r="B332" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>461</v>
+      </c>
+      <c r="B333" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>461</v>
+      </c>
+      <c r="B334" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>462</v>
+      </c>
+      <c r="B335" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>462</v>
+      </c>
+      <c r="B336" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>463</v>
+      </c>
+      <c r="B337" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>463</v>
+      </c>
+      <c r="B338" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>463</v>
+      </c>
+      <c r="B339" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>463</v>
+      </c>
+      <c r="B340" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>463</v>
+      </c>
+      <c r="B341" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>464</v>
+      </c>
+      <c r="B342" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>464</v>
+      </c>
+      <c r="B343" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>465</v>
+      </c>
+      <c r="B344" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>465</v>
+      </c>
+      <c r="B345" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>466</v>
+      </c>
+      <c r="B346" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>466</v>
+      </c>
+      <c r="B347" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>467</v>
+      </c>
+      <c r="B348" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>467</v>
+      </c>
+      <c r="B349" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>468</v>
+      </c>
+      <c r="B350" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>468</v>
+      </c>
+      <c r="B351" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>468</v>
+      </c>
+      <c r="B352" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>469</v>
+      </c>
+      <c r="B353" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>469</v>
+      </c>
+      <c r="B354" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>469</v>
+      </c>
+      <c r="B355" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>469</v>
+      </c>
+      <c r="B356" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>469</v>
+      </c>
+      <c r="B357" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>470</v>
+      </c>
+      <c r="B358" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>470</v>
+      </c>
+      <c r="B359" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>471</v>
+      </c>
+      <c r="B360" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>471</v>
+      </c>
+      <c r="B361" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>472</v>
+      </c>
+      <c r="B362" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>472</v>
+      </c>
+      <c r="B363" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>473</v>
+      </c>
+      <c r="B364" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>473</v>
+      </c>
+      <c r="B365" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>474</v>
+      </c>
+      <c r="B366" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>474</v>
+      </c>
+      <c r="B367" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>475</v>
+      </c>
+      <c r="B368" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>475</v>
+      </c>
+      <c r="B369" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>476</v>
+      </c>
+      <c r="B370" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>476</v>
+      </c>
+      <c r="B371" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>477</v>
+      </c>
+      <c r="B372" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>477</v>
+      </c>
+      <c r="B373" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>478</v>
+      </c>
+      <c r="B374" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>478</v>
+      </c>
+      <c r="B375" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>478</v>
+      </c>
+      <c r="B376" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>478</v>
+      </c>
+      <c r="B377" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>479</v>
+      </c>
+      <c r="B378" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>479</v>
+      </c>
+      <c r="B379" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>480</v>
+      </c>
+      <c r="B380" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>480</v>
+      </c>
+      <c r="B381" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>481</v>
+      </c>
+      <c r="B382" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>481</v>
+      </c>
+      <c r="B383" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>482</v>
+      </c>
+      <c r="B384" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>482</v>
+      </c>
+      <c r="B385" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>482</v>
+      </c>
+      <c r="B386" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>482</v>
+      </c>
+      <c r="B387" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>482</v>
+      </c>
+      <c r="B388" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>483</v>
+      </c>
+      <c r="B389" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>483</v>
+      </c>
+      <c r="B390" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>483</v>
+      </c>
+      <c r="B391" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>483</v>
+      </c>
+      <c r="B392" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>484</v>
+      </c>
+      <c r="B393" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>484</v>
+      </c>
+      <c r="B394" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>485</v>
+      </c>
+      <c r="B395" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>485</v>
+      </c>
+      <c r="B396" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>485</v>
+      </c>
+      <c r="B397" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B398" t="s">
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A398" r:id="rId1" xr:uid="{F9966652-13C9-4D72-8977-AC948A4AA084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>